--- a/Sprint 2/UC03_Definir_Categoria_Tarefa/UC03_Definir_Categoria_Tarefa_Test_Scenario.xlsx
+++ b/Sprint 2/UC03_Definir_Categoria_Tarefa/UC03_Definir_Categoria_Tarefa_Test_Scenario.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="50">
   <si>
     <t>Project Name</t>
   </si>
@@ -106,12 +106,6 @@
   </si>
   <si>
     <t>Mensagem de erro : "Não existe a Área de Atividade informada. "</t>
-  </si>
-  <si>
-    <t>1. Introduzir um Código único válido. 
-2. Informar uma Área de atividade correspondente válida.      
-3. Introduzir uma Descrição breve válida. 
-4. Introduzir uma Descrição detalhada válida.                                                                    5. Introduzir graus de competência válidos.</t>
   </si>
   <si>
     <t>1. Código Único : CT001
@@ -126,47 +120,16 @@
     <t>CAD</t>
   </si>
   <si>
-    <t>1. Ao menos um Administrativo registrado na plataforma.                                    
- 2. Ao menos uma Área de atividade registrada na plataforma.</t>
-  </si>
-  <si>
-    <t>1. Introduzir um Código único com formato diferente do padronizado.
-2. Informar uma Área de atividade correspondente válida. 
-3. Introduzir uma Descrição breve válida. 
-4. Introduzir uma Descrição detalhada válida.                               
-5. Introduzir graus de competência válidos.</t>
-  </si>
-  <si>
-    <t>1. Ao menos um Administrativo registrado na plataforma.                                     
-2. Ao menos uma Área de atividade registrada na plataforma.</t>
-  </si>
-  <si>
     <t>1. Código Único : Código 123
 2. Design e Tecnologia                 
 3. Descrição breve : Back end design para websites                                              
 4. Descrição detalhada: Experiência comprovada no uso de Java e Ruby para desenvolvimento  back end de websites.                                                            5. Graus de proficiência: Médio e Alto</t>
   </si>
   <si>
-    <t>1. Introduzir um Código único válido.
-  2. Informar uma Área de atividade não existente. 
-3. Introduzir uma Descrição breve válida. 
-4. Introduzir uma Descrição detalhada válida.                                                                                                                    5. Introduzir graus de competência válidos.</t>
-  </si>
-  <si>
-    <t>1. Ao menos um Administrativo registrado na plataforma.                                   
-2. Ao menos uma Área de atividade registrada na plataforma.</t>
-  </si>
-  <si>
     <t>1. Código Único : CT001
 2. Confecção Têxtil.       
 3. Descrição breve : Back end design para websites                                              
 4. Descrição detalhada: Experiência comprovada no uso de Java e Ruby para desenvolvimento  back end de websites.                                                                                    5. Graus de proficiência: Médio e Alto</t>
-  </si>
-  <si>
-    <t>1. Introduzir um Código único válido.
-2. Informar uma Área de atividade correspondente válida.   
-3. Não introduz uma Descrição breve. 
-4. Introduzir uma Descrição detalhada válida.                                                                            5. Introduzir graus de competência válidos.</t>
   </si>
   <si>
     <t>1. Código Único : CT001
@@ -176,16 +139,6 @@
 5. Graus de proficiência: Médio e Alto</t>
   </si>
   <si>
-    <t>1. Introduzir um Código único válido. 
-2. Informar uma Área de atividade correspondente válida.
-3. Introduzir uma Descrição breve válida. 
-4. Não Introduz uma Descrição detalhada.                                                                                        5. Introduzir graus de competência válidos.</t>
-  </si>
-  <si>
-    <t>1. Ao menos um Administrativo registrado na plataforma.                                    
-2. Ao menos uma Área de atividade registrada na plataforma.</t>
-  </si>
-  <si>
     <t>1. Código Único : CT001
 2. Design e Tecnologia
 3. Descrição breve : Back end design para websites                                              
@@ -243,12 +196,22 @@
 3. Lista de competência(s) técnica(s) requerida(s) válida(s).        
 4. Caráter de obrigatoriedade para cada competência técnica inválido.</t>
   </si>
+  <si>
+    <t>1. Selecionar uma Área de Atividade.     
+2. Introduzir uma Descrição válida. 
+4. Introduzir uma lista de competências técnicas válidas.                                                                    5. Informar o caráter de obrigatoriedade para cada competência técnica válidos.</t>
+  </si>
+  <si>
+    <t>1. A plataforma tem que ter pelo menos um Administrativo registado.
+2. É necessário que já exista pelo menos uma área de actividade à qual se possam associar categorias de tarefas.
+3. É necessário que existam competências técnicas definidas que possam ser associadas às diferentes categorias de tarefas.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
@@ -258,6 +221,13 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -306,7 +276,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -325,6 +295,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -677,8 +650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="64" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="64" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -696,7 +669,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -710,7 +683,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -738,19 +711,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
@@ -758,19 +731,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -778,19 +751,19 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="94.5" x14ac:dyDescent="0.25">
@@ -798,19 +771,19 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -818,39 +791,39 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>43</v>
+        <v>49</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="141.75" x14ac:dyDescent="0.25">
@@ -858,19 +831,19 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">

--- a/Sprint 2/UC03_Definir_Categoria_Tarefa/UC03_Definir_Categoria_Tarefa_Test_Scenario.xlsx
+++ b/Sprint 2/UC03_Definir_Categoria_Tarefa/UC03_Definir_Categoria_Tarefa_Test_Scenario.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="54">
   <si>
     <t>Project Name</t>
   </si>
@@ -81,69 +81,16 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>Competência Técnica criada</t>
-  </si>
-  <si>
-    <t>Competência Técnica criada e disponível na plataforma.</t>
-  </si>
-  <si>
-    <t>Popup: Falha no registro de Competência Técnica.</t>
-  </si>
-  <si>
     <t>Passa</t>
   </si>
   <si>
     <t>Não passa</t>
   </si>
   <si>
-    <t>Mensagem de erro : "Descrição breve para registro de Competência Técnica obrigatória."</t>
-  </si>
-  <si>
-    <t>Mensagem de erro : "Código de registro de Competência Técnica inválido."</t>
-  </si>
-  <si>
-    <t>Mensagem de erro : "Descrição detalhada para registro de Competência Técnica obrigatória."</t>
-  </si>
-  <si>
-    <t>Mensagem de erro : "Não existe a Área de Atividade informada. "</t>
-  </si>
-  <si>
-    <t>1. Código Único : CT001
-2. Design e Tecnologia   
- 3. Descrição breve : Back end design para websites                                             
- 4. Descrição detalhada: Experiência comprovada no uso de Java e Ruby para desenvolvimento  back end de websites.                                                            5. Graus de proficiência: Médio e Alto</t>
-  </si>
-  <si>
     <t>T4J - Sprint 2</t>
   </si>
   <si>
     <t>CAD</t>
-  </si>
-  <si>
-    <t>1. Código Único : Código 123
-2. Design e Tecnologia                 
-3. Descrição breve : Back end design para websites                                              
-4. Descrição detalhada: Experiência comprovada no uso de Java e Ruby para desenvolvimento  back end de websites.                                                            5. Graus de proficiência: Médio e Alto</t>
-  </si>
-  <si>
-    <t>1. Código Único : CT001
-2. Confecção Têxtil.       
-3. Descrição breve : Back end design para websites                                              
-4. Descrição detalhada: Experiência comprovada no uso de Java e Ruby para desenvolvimento  back end de websites.                                                                                    5. Graus de proficiência: Médio e Alto</t>
-  </si>
-  <si>
-    <t>1. Código Único : CT001
-2. Design e Tecnologia 
-3. Descrição breve : (vazio)
-4. Descrição detalhada: Experiência comprovada no uso de Java e Ruby para desenvolvimento  back end de websites.
-5. Graus de proficiência: Médio e Alto</t>
-  </si>
-  <si>
-    <t>1. Código Único : CT001
-2. Design e Tecnologia
-3. Descrição breve : Back end design para websites                                              
-4. Descrição detalhada: (vazio)                                                         
-5. Graus de proficiência: Médio e Alto</t>
   </si>
   <si>
     <t>UC03_TS001</t>
@@ -197,21 +144,129 @@
 4. Caráter de obrigatoriedade para cada competência técnica inválido.</t>
   </si>
   <si>
+    <t xml:space="preserve">1. Design e Tecnologia
+2. Desenvolvimento de Apps - Android
+ 3. Competências Técnicas:
+3.1. Android SDK
+3.2. Eclipse for Java Developers
+  3.3. Plugin ADT (Android Development Tools)
+3.4. Java SE 6 Software Development Kit
+4. Caráter CT:
+4.1. Obrigatório
+4.2. Obrigatório
+4.3. Obrigatório
+4.4. Obrigatório                                        
+ </t>
+  </si>
+  <si>
     <t>1. Selecionar uma Área de Atividade.     
 2. Introduzir uma Descrição válida. 
-4. Introduzir uma lista de competências técnicas válidas.                                                                    5. Informar o caráter de obrigatoriedade para cada competência técnica válidos.</t>
+3. Introduzir uma lista de competências técnicas válidas.                                                                    4. Informar o caráter de obrigatoriedade para cada competência técnica válidos.</t>
+  </si>
+  <si>
+    <t>1. Não selecionar uma Área de Atividade.     
+2. Introduzir uma Descrição válida. 
+3. Introduzir uma lista de competências técnicas válidas.                                                                    4. Informar o caráter de obrigatoriedade para cada competência técnica válidos.</t>
+  </si>
+  <si>
+    <t>1. Selecionar uma Área de Atividade.     
+2. Não introduzir uma Descrição válida. 
+3. Introduzir uma lista de competências técnicas válidas.                                                                    4. Informar o caráter de obrigatoriedade para cada competência técnica válidos.</t>
+  </si>
+  <si>
+    <t>1. Selecionar uma Área de Atividade.     
+2. Introduzir uma Descrição válida. 
+3. Não introduzir uma lista de competências técnicas válidas.                                                                    4. Informar o caráter de obrigatoriedade para cada competência técnica válidos.</t>
+  </si>
+  <si>
+    <t>1. Selecionar uma Área de Atividade.     
+2. Introduzir uma Descrição válida. 
+3. Introduzir uma lista de competências técnicas válidas.                                                                    4. Não informar o caráter de obrigatoriedade para cada competência técnica.</t>
+  </si>
+  <si>
+    <t>Nova Categoria de Tarefa criada</t>
+  </si>
+  <si>
+    <t>Categoria de Tarefa criada e disponível na plataforma.</t>
+  </si>
+  <si>
+    <t>Popup: Falha no registro de Categoria de Tarefa</t>
+  </si>
+  <si>
+    <t>Mensagem de erro : "Não foi selecionada uma Área de Atividade válida."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Nenhuma Área de Atividade selecionada.
+2. Desenvolvimento de Apps - Android
+ 3. Competências Técnicas:
+3.1. Android SDK
+3.2. Eclipse for Java Developers
+  3.3. Plugin ADT (Android Development Tools)
+3.4. Java SE 6 Software Development Kit
+4. Caráter CT:
+4.1. Obrigatório
+4.2. Obrigatório
+4.3. Obrigatório
+4.4. Obrigatório                                        
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Design e Tecnologia
+2. Descrição não informada (vazia).
+ 3. Competências Técnicas:
+3.1. Android SDK
+3.2. Eclipse for Java Developers
+  3.3. Plugin ADT (Android Development Tools)
+3.4. Java SE 6 Software Development Kit
+4. Caráter CT:
+4.1. Obrigatório
+4.2. Obrigatório
+4.3. Obrigatório
+4.4. Obrigatório                                        
+ </t>
+  </si>
+  <si>
+    <t>Mensagem de erro : "Descrição obrigatória para registo de nova Categoria de Tarefa."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Design e Tecnologia
+2. Desenvolvimento de Apps - Android
+ 3. Nenhuma Competência Técnica selecionada.
+4. Caráter CT: (vazio)
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Design e Tecnologia
+2. Desenvolvimento de Apps - Android
+ 3. Competências Técnicas:
+3.1. Android SDK
+3.2. Eclipse for Java Developers
+  3.3. Plugin ADT (Android Development Tools)
+3.4. Java SE 6 Software Development Kit
+4. Caráter CT:
+4.1. Não informado
+4.2. Não informado
+4.3. Não informado
+4.4. Não informado                               
+ </t>
   </si>
   <si>
     <t>1. A plataforma tem que ter pelo menos um Administrativo registado.
-2. É necessário que já exista pelo menos uma área de actividade à qual se possam associar categorias de tarefas.
+2. É necessário que já exista pelo menos uma área de atividade à qual se possam associar categorias de tarefas.
 3. É necessário que existam competências técnicas definidas que possam ser associadas às diferentes categorias de tarefas.</t>
+  </si>
+  <si>
+    <t>Mensagem de erro : "É obrigatória a informação de ao menos uma Competência Técnica para registro de nova Categoria de Tarefa."</t>
+  </si>
+  <si>
+    <t>Mensagem de erro : "É obrigatória a informação do Caráter de obrigatoriedade ou não para cada Competência Técnica selecionada a fim de para registro de nova Categoria de Tarefa."</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
@@ -221,13 +276,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -276,7 +324,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -295,9 +343,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -650,8 +695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="64" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="64" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -669,7 +714,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -683,7 +728,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -711,19 +756,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
@@ -731,19 +776,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -751,19 +796,19 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="94.5" x14ac:dyDescent="0.25">
@@ -771,19 +816,19 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -791,19 +836,19 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="157.5" x14ac:dyDescent="0.25">
@@ -811,59 +856,59 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="141.75" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="236.25" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
@@ -871,19 +916,19 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -901,19 +946,19 @@
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
